--- a/CRONOGRAMA-APP.xlsx
+++ b/CRONOGRAMA-APP.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FE97FF-D8A6-46E0-9697-20BA13F5F5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9765C-3502-4A1C-A4A9-F6EF2CA1B1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,8 @@
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
-    Em Desenvolvimento !</t>
+    Em Desenvolvimento (ajustes nos fitros) sendo realizados ...
+Criação da APK - instalação no celular da CitroSuco</t>
       </text>
     </comment>
     <comment ref="D28" authorId="4" shapeId="0" xr:uid="{3B5187E9-E79E-44DE-85EE-07BDF24E856E}">
@@ -241,9 +242,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mmm\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="0.0000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="3"/>
@@ -317,12 +318,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -459,7 +454,7 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -467,23 +462,18 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color theme="6" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+      <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -552,10 +542,10 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight8">
     <tableStyle name="Project Timeline" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="wholeTable" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -5320,37 +5310,37 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>#N/A</c:v>
@@ -6413,7 +6403,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{47DEB63C-E808-43EB-AD68-5A1D7A9FAE93}</c15:txfldGUID>
+                      <c15:txfldGUID>{AE1A635D-E4DF-4430-B9C6-23099794A45B}</c15:txfldGUID>
                       <c15:f>cálculos!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6454,7 +6444,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{61472234-22CC-4784-8E43-C3D5110BCAD8}</c15:txfldGUID>
+                      <c15:txfldGUID>{4B94F9EC-4DC5-4F84-8226-C4D3651D6846}</c15:txfldGUID>
                       <c15:f>cálculos!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6495,7 +6485,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{981D104C-9DF9-41CC-9C79-318B46E47977}</c15:txfldGUID>
+                      <c15:txfldGUID>{350CBCFC-5562-4636-BCD7-FA6C8405FA52}</c15:txfldGUID>
                       <c15:f>cálculos!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6536,7 +6526,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E1C15B2B-D25A-4881-8E50-8929CED626FC}</c15:txfldGUID>
+                      <c15:txfldGUID>{050E3D16-1D37-4557-9D79-01D48421693A}</c15:txfldGUID>
                       <c15:f>cálculos!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6577,7 +6567,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{31F93468-B04C-4DBB-AAAA-495103B8DAED}</c15:txfldGUID>
+                      <c15:txfldGUID>{365857B2-E3A5-4DB0-9B11-DE6251138F17}</c15:txfldGUID>
                       <c15:f>cálculos!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6618,7 +6608,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{99961D74-FAFA-4D07-8C25-8632269E9E56}</c15:txfldGUID>
+                      <c15:txfldGUID>{7A15B2C5-0608-4544-88DB-6783F6D90735}</c15:txfldGUID>
                       <c15:f>cálculos!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6659,7 +6649,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{69A7E0DA-F039-4CA2-A9D0-61AA1E0EE735}</c15:txfldGUID>
+                      <c15:txfldGUID>{4DAC8214-EEFA-4439-BC56-432F7827F0C7}</c15:txfldGUID>
                       <c15:f>cálculos!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6700,7 +6690,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BD8997C5-D067-4174-83DD-D8496AAED5CF}</c15:txfldGUID>
+                      <c15:txfldGUID>{C10E0A00-1D21-4CB6-B967-5FF8FEE0549A}</c15:txfldGUID>
                       <c15:f>cálculos!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6741,7 +6731,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F698D417-449C-4E13-BD10-74F4AD773BCC}</c15:txfldGUID>
+                      <c15:txfldGUID>{503BF511-2990-47D2-A1F4-8F0E0494863B}</c15:txfldGUID>
                       <c15:f>cálculos!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6782,7 +6772,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A73AC1F5-5CFC-4FCC-9388-ED59D48C9B45}</c15:txfldGUID>
+                      <c15:txfldGUID>{31EDD7C7-493F-4EFE-9E91-E6ACEEACBB4E}</c15:txfldGUID>
                       <c15:f>cálculos!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6823,7 +6813,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1DD1093F-D082-4BF5-86E1-78B60E44E39A}</c15:txfldGUID>
+                      <c15:txfldGUID>{46536747-4BF4-463F-9B4E-49EB006697FC}</c15:txfldGUID>
                       <c15:f>cálculos!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6864,7 +6854,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ACC536A7-3A9A-4281-B4AF-D27D064A51E4}</c15:txfldGUID>
+                      <c15:txfldGUID>{F0E625C3-5822-4A59-AA87-2D1C70F52E98}</c15:txfldGUID>
                       <c15:f>cálculos!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6905,7 +6895,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{74FFA9DA-26BB-4B2E-97B1-91D980D2C3F9}</c15:txfldGUID>
+                      <c15:txfldGUID>{29B3B6D3-DE63-42AA-9384-97D28A60C978}</c15:txfldGUID>
                       <c15:f>cálculos!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6946,7 +6936,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{315FD496-A317-47C9-B6F5-9E051F4016CF}</c15:txfldGUID>
+                      <c15:txfldGUID>{B23D61E6-F7E9-4ACF-94EE-C414DE173F70}</c15:txfldGUID>
                       <c15:f>cálculos!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6987,7 +6977,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{64B9F6E2-048F-4E04-876B-88E16D77D840}</c15:txfldGUID>
+                      <c15:txfldGUID>{91C92B43-338C-4F46-AA4E-DFED9AFD7786}</c15:txfldGUID>
                       <c15:f>cálculos!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7028,7 +7018,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C581A9F2-2EFB-443A-833D-AED0213F701D}</c15:txfldGUID>
+                      <c15:txfldGUID>{DBD629B3-BB34-47A0-B9CE-0F71584FE58C}</c15:txfldGUID>
                       <c15:f>cálculos!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7069,7 +7059,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{292C6C5A-12EA-4CFF-82E6-628B74E1D67C}</c15:txfldGUID>
+                      <c15:txfldGUID>{B80445D2-001C-4B32-BDFA-668B372FA0A9}</c15:txfldGUID>
                       <c15:f>cálculos!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7110,7 +7100,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{09061AC1-7397-443B-85E8-9739256AA697}</c15:txfldGUID>
+                      <c15:txfldGUID>{D909033C-4C77-4357-B057-1C983333144F}</c15:txfldGUID>
                       <c15:f>cálculos!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7151,7 +7141,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AE3C41F1-F8A5-4271-920D-B979AD13E159}</c15:txfldGUID>
+                      <c15:txfldGUID>{490FF821-AFEF-4F2A-B569-83C8D2E64ED6}</c15:txfldGUID>
                       <c15:f>cálculos!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7192,7 +7182,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0B6E3229-B0EA-474C-B8CF-D4D29285C882}</c15:txfldGUID>
+                      <c15:txfldGUID>{F27E3115-EECA-42B3-AE37-ADC7F7F24612}</c15:txfldGUID>
                       <c15:f>cálculos!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7233,7 +7223,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{19DF589C-4881-4A4E-9B36-4C232A209412}</c15:txfldGUID>
+                      <c15:txfldGUID>{79AACF4D-DB7C-42CE-B78D-C95CB5EFA406}</c15:txfldGUID>
                       <c15:f>cálculos!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7274,7 +7264,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4D7592CA-E0F8-4656-AF18-11AD4CF287DE}</c15:txfldGUID>
+                      <c15:txfldGUID>{2804BA05-0012-4009-8C7E-8D3F8B5B7884}</c15:txfldGUID>
                       <c15:f>cálculos!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7315,7 +7305,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{92E97C02-0A79-4357-AC54-DA8E25B4A768}</c15:txfldGUID>
+                      <c15:txfldGUID>{E38FA17D-BDE6-4C86-94B6-491DA8BDD4CF}</c15:txfldGUID>
                       <c15:f>cálculos!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7356,7 +7346,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6AB0D881-4D16-4D24-B917-93E5EB99EA58}</c15:txfldGUID>
+                      <c15:txfldGUID>{1F9BCA56-E378-4745-BD5E-0243D55AB92B}</c15:txfldGUID>
                       <c15:f>cálculos!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7397,7 +7387,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FF59A1A2-9D63-43D4-99E8-0D15553897CA}</c15:txfldGUID>
+                      <c15:txfldGUID>{DEA1FE18-9428-4C16-8950-7E9BF6D4AA95}</c15:txfldGUID>
                       <c15:f>cálculos!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7438,7 +7428,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F0BB6A95-AAF6-406D-98D4-2B846B8632EB}</c15:txfldGUID>
+                      <c15:txfldGUID>{44C16FD2-2431-4EBA-B0E5-CD65F5D8785F}</c15:txfldGUID>
                       <c15:f>cálculos!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7479,7 +7469,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{91E9620C-F5F8-417A-A68A-18C8022F43DF}</c15:txfldGUID>
+                      <c15:txfldGUID>{959BC9A7-9FD2-4EF9-92B6-9F947DEF0D1F}</c15:txfldGUID>
                       <c15:f>cálculos!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7520,7 +7510,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0CCEFEFB-8D9F-4DA2-A6BF-70174450DE07}</c15:txfldGUID>
+                      <c15:txfldGUID>{FF556554-A759-4F4B-BACD-43E5B757E282}</c15:txfldGUID>
                       <c15:f>cálculos!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7561,7 +7551,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{533C7672-8549-4735-9204-65BDCAA06123}</c15:txfldGUID>
+                      <c15:txfldGUID>{B7F13289-6862-4816-A19A-FBADD7777F69}</c15:txfldGUID>
                       <c15:f>cálculos!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7602,7 +7592,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B82E95AD-F2E3-40EB-83CB-FF87F23E24AA}</c15:txfldGUID>
+                      <c15:txfldGUID>{EF8A85FE-6B46-4998-841A-56FCB4AF351D}</c15:txfldGUID>
                       <c15:f>cálculos!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7894,7 +7884,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EB5CA05F-1849-4E05-BC53-7C68E116E8CC}</c15:txfldGUID>
+                      <c15:txfldGUID>{BA1CAB38-57F0-44B5-8D13-8764F621DEBA}</c15:txfldGUID>
                       <c15:f>cálculos!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7935,7 +7925,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{09204B3C-151C-4970-9368-6151875019C0}</c15:txfldGUID>
+                      <c15:txfldGUID>{7B300EB9-2418-4695-9A38-BEBC02B15CE5}</c15:txfldGUID>
                       <c15:f>cálculos!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7976,7 +7966,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9AB57C63-88E8-429F-8FDC-670282CBEDAA}</c15:txfldGUID>
+                      <c15:txfldGUID>{70E1DBE0-FB56-43B6-AE6F-D33094E5ECBF}</c15:txfldGUID>
                       <c15:f>cálculos!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8017,7 +8007,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9E65C558-D7AB-4C62-9A71-3649F2302AA1}</c15:txfldGUID>
+                      <c15:txfldGUID>{0E17B220-E972-4CFB-AE7F-2DBC76C8F996}</c15:txfldGUID>
                       <c15:f>cálculos!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8058,7 +8048,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C5BCEAA4-36FE-40FC-B327-02AE8450708C}</c15:txfldGUID>
+                      <c15:txfldGUID>{D838942E-C9AE-48E4-9596-619487C709DD}</c15:txfldGUID>
                       <c15:f>cálculos!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8099,7 +8089,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7AA1A758-426B-4631-BFB0-959C5DE465D9}</c15:txfldGUID>
+                      <c15:txfldGUID>{D9608561-A714-45F2-965A-6E6DD1E04F71}</c15:txfldGUID>
                       <c15:f>cálculos!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8140,7 +8130,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7B434376-9410-4B78-9C87-5B6CDDA4B97E}</c15:txfldGUID>
+                      <c15:txfldGUID>{62CBBE24-3060-4F45-A937-951362945F3A}</c15:txfldGUID>
                       <c15:f>cálculos!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8181,7 +8171,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{20BD00A7-2DC8-4531-ABFF-2EFE8F0D1C33}</c15:txfldGUID>
+                      <c15:txfldGUID>{7B881D4D-134A-4C4F-8391-20950C222D26}</c15:txfldGUID>
                       <c15:f>cálculos!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8222,7 +8212,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{65D888E5-5524-4518-801C-2C1CAFF81B16}</c15:txfldGUID>
+                      <c15:txfldGUID>{A8D7CECB-2D9B-4D4A-8CF6-5405248B4D38}</c15:txfldGUID>
                       <c15:f>cálculos!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8263,7 +8253,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A775361A-C3F9-49E6-8500-AFE61DE0A5D4}</c15:txfldGUID>
+                      <c15:txfldGUID>{B59D9D5D-3325-419B-A6CF-559617F141EF}</c15:txfldGUID>
                       <c15:f>cálculos!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8304,7 +8294,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D6B0143D-522A-4173-8AA6-1B7344F06B0B}</c15:txfldGUID>
+                      <c15:txfldGUID>{BF414947-3CE1-426F-B5EA-76A31571ECFC}</c15:txfldGUID>
                       <c15:f>cálculos!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8345,7 +8335,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{532DA124-817F-4711-8627-46E40E6C26EF}</c15:txfldGUID>
+                      <c15:txfldGUID>{5F39062F-9DC2-49BC-A86E-F06B860E7DE3}</c15:txfldGUID>
                       <c15:f>cálculos!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8386,7 +8376,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7068D128-A53D-48D4-B37F-A9C8B48979B5}</c15:txfldGUID>
+                      <c15:txfldGUID>{A43E277A-2347-4707-8A2E-7C7CF7303C21}</c15:txfldGUID>
                       <c15:f>cálculos!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8427,7 +8417,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9E200AD9-F5EE-4E6D-A892-C0ED7FB9B941}</c15:txfldGUID>
+                      <c15:txfldGUID>{74EFC11C-EEE5-4425-8841-081C33535FB9}</c15:txfldGUID>
                       <c15:f>cálculos!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8468,7 +8458,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{499881A0-2C7A-4B70-AA96-C4AEB8EB08D7}</c15:txfldGUID>
+                      <c15:txfldGUID>{2B276313-B8F6-41D6-B66F-01B016A302AB}</c15:txfldGUID>
                       <c15:f>cálculos!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8509,7 +8499,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D5B0D2EC-1D9A-401F-9C55-EB5121CD5699}</c15:txfldGUID>
+                      <c15:txfldGUID>{25B158AF-548C-4E07-AFEE-04FAB4E13EBC}</c15:txfldGUID>
                       <c15:f>cálculos!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8550,7 +8540,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7E7EB73B-EBAD-45D8-AB18-A69C308F4614}</c15:txfldGUID>
+                      <c15:txfldGUID>{5A2CE9CE-391B-4957-852B-07AB8BD4E1D7}</c15:txfldGUID>
                       <c15:f>cálculos!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8591,7 +8581,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EDAE0CCB-3408-4243-88D9-085BEBCA41F0}</c15:txfldGUID>
+                      <c15:txfldGUID>{DA39961E-4642-4969-BBEA-C35309546131}</c15:txfldGUID>
                       <c15:f>cálculos!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8632,7 +8622,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{78926091-876E-4F51-8A7A-9C2BBFC72F9F}</c15:txfldGUID>
+                      <c15:txfldGUID>{476C9F55-C112-45C0-A281-21D8B2FD042E}</c15:txfldGUID>
                       <c15:f>cálculos!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8673,7 +8663,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{70EA45D0-3038-46A1-ADDB-353C78AE7C6C}</c15:txfldGUID>
+                      <c15:txfldGUID>{E8E8590B-7DA2-4FF2-8521-2E52B3F4E161}</c15:txfldGUID>
                       <c15:f>cálculos!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8714,7 +8704,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D08A3A99-84A9-4CC6-A8BB-673B052E8E40}</c15:txfldGUID>
+                      <c15:txfldGUID>{C95F96A3-C341-4581-9E4A-E2A3296AFA47}</c15:txfldGUID>
                       <c15:f>cálculos!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8755,7 +8745,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3DF47CE4-C468-409D-86BD-1984D6D130DD}</c15:txfldGUID>
+                      <c15:txfldGUID>{535F6718-E940-4527-AD8A-D5EAB3EE4008}</c15:txfldGUID>
                       <c15:f>cálculos!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8796,7 +8786,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{ED985A95-E24B-4535-B436-E841CCAD967D}</c15:txfldGUID>
+                      <c15:txfldGUID>{F7D6C498-E0F0-4387-9854-47AC6F3EE89B}</c15:txfldGUID>
                       <c15:f>cálculos!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8837,7 +8827,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{3EE9550F-EEE2-4025-AE54-F2293DA21C13}</c15:txfldGUID>
+                      <c15:txfldGUID>{9C9AF146-45C2-4084-9DC5-EDAA105125AA}</c15:txfldGUID>
                       <c15:f>cálculos!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8878,7 +8868,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{CEF10343-C39F-4266-A6ED-4C1C8CFD4018}</c15:txfldGUID>
+                      <c15:txfldGUID>{402FB6B5-D81F-4C35-8071-E4624280F857}</c15:txfldGUID>
                       <c15:f>cálculos!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8919,7 +8909,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AE1BE3F7-78E5-4354-A3E5-7AF34655BBAC}</c15:txfldGUID>
+                      <c15:txfldGUID>{D01383EB-6D79-41B5-A799-162EAC546F09}</c15:txfldGUID>
                       <c15:f>cálculos!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8960,7 +8950,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2023AF63-98AB-4EFA-B173-ECF4932B176A}</c15:txfldGUID>
+                      <c15:txfldGUID>{84FF1AAE-D47A-472A-8D31-E060CEEC4C25}</c15:txfldGUID>
                       <c15:f>cálculos!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -9001,7 +8991,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EF18C362-24D4-497B-9370-FF6062F8C014}</c15:txfldGUID>
+                      <c15:txfldGUID>{FC0441FE-7639-4A4B-A703-53A990CFD880}</c15:txfldGUID>
                       <c15:f>cálculos!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -9042,7 +9032,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{241A57B7-6ED5-4359-BA0C-1776801182CC}</c15:txfldGUID>
+                      <c15:txfldGUID>{C4AB1124-AACA-4A9A-9E59-6EE8F37FC708}</c15:txfldGUID>
                       <c15:f>cálculos!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -9083,7 +9073,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{8E72E12A-960A-4713-A084-D3323E976C62}</c15:txfldGUID>
+                      <c15:txfldGUID>{6B48AB46-3DBD-4065-A7D2-D846D83AC970}</c15:txfldGUID>
                       <c15:f>cálculos!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -9936,9 +9926,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>7562851</xdr:colOff>
+          <xdr:colOff>7566660</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10076,21 +10066,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Atividades" displayName="Atividades" ref="A22:E31" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Atividades" displayName="Atividades" ref="A22:E31" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A22:E31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B20:E25">
     <sortCondition ref="C19:C25"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ID" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ID" dataDxfId="4">
       <calculatedColumnFormula>N(A22)+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATIVIDADE" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="INÍCIO" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ATIVIDADE" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="INÍCIO" dataDxfId="2">
       <calculatedColumnFormula>C22+10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TÉRMINO" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="OBSERVAÇÕES" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="TÉRMINO" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="OBSERVAÇÕES" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Project Timeline" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -10338,7 +10328,8 @@
     <text>Tarefa Concluída !</text>
   </threadedComment>
   <threadedComment ref="D27" dT="2024-01-03T12:35:04.48" personId="{00000000-0000-0000-0000-000000000000}" id="{45CF0ECB-2BCC-439F-9D1B-C0482042D742}">
-    <text>Em Desenvolvimento !</text>
+    <text>Em Desenvolvimento (ajustes nos fitros) sendo realizados ...
+Criação da APK - instalação no celular da CitroSuco</text>
   </threadedComment>
   <threadedComment ref="D28" dT="2024-01-03T12:35:52.11" personId="{00000000-0000-0000-0000-000000000000}" id="{3B5187E9-E79E-44DE-85EE-07BDF24E856E}">
     <text>Aguardando !</text>
@@ -10358,7 +10349,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10590,7 +10581,7 @@
       <c r="B35" s="1"/>
       <c r="E35" s="1">
         <f ca="1">TODAY()</f>
-        <v>45294</v>
+        <v>45304</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10719,7 +10710,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>45294</v>
+        <v>45304</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -13809,49 +13800,49 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="T56">
+      <c r="T56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="U56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="V56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="W56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="X56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Y56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Z56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AA56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AB56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AC56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AD56">
         <f t="shared" ca="1" si="16"/>
         <v>5</v>
-      </c>
-      <c r="U56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="V56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="W56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="X56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Y56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Z56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AA56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AB56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AC56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AD56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
       </c>
       <c r="AE56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -15128,12 +15119,128 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetExpire xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPFriendlyName xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IntlLangReview xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">845883</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <SubmitterId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AcquiredFrom xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Markets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <OriginAsset xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetStart xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2012-06-28T22:28:09+00:00</AssetStart>
+    <FriendlyTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <MarketSpecific xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MarketSpecific>
+    <TPNamespace xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Value>452400</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2566</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OpenTemplate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <Manager xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <NumericId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ParentAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</OriginalSourceMarket>
+    <ApprovalStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">InProgress</ApprovalStatus>
+    <TPComponent xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <EditorialTags xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPExecutable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <SourceTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXUpdate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CSXUpdate>
+    <IntlLocPriority xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <MachineTranslated xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MachineTranslated>
+    <OutputCachingOn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</OutputCachingOn>
+    <TemplateStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</TemplateStatus>
+    <IsSearchable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsSearchable>
+    <ContentItem xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ShowIn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UALocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UALocRecommendation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LegacyData xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ClipArtFilename xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPApplication xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXHash xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</DirectSourceMarket>
+    <PrimaryImageGen xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Downloads xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">0</Downloads>
+    <ArtSampleDocs xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TrustLevel xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Providers xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPAppVersion xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <VoteCount xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UACurrentWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP102929977</AssetId>
+    <TPClientViewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <DSATActionTaken xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <APEditor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OOCacheId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IsDeleted xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsDeleted>
+    <PublishTargets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <BugNumber xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Milestone xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OriginalRelease xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">15</OriginalRelease>
+    <RecommendationsModifier xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16171,134 +16278,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetExpire xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPFriendlyName xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IntlLangReview xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">845883</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <SubmitterId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AcquiredFrom xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Markets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <OriginAsset xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetStart xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2012-06-28T22:28:09+00:00</AssetStart>
-    <FriendlyTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <MarketSpecific xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MarketSpecific>
-    <TPNamespace xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Value>452400</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2566</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OpenTemplate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <Manager xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <NumericId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ParentAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</OriginalSourceMarket>
-    <ApprovalStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">InProgress</ApprovalStatus>
-    <TPComponent xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <EditorialTags xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPExecutable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <SourceTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXUpdate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CSXUpdate>
-    <IntlLocPriority xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <MachineTranslated xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MachineTranslated>
-    <OutputCachingOn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</OutputCachingOn>
-    <TemplateStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</TemplateStatus>
-    <IsSearchable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsSearchable>
-    <ContentItem xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ShowIn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UALocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UALocRecommendation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LegacyData xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ClipArtFilename xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPApplication xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXHash xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</DirectSourceMarket>
-    <PrimaryImageGen xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Downloads xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">0</Downloads>
-    <ArtSampleDocs xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TrustLevel xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Providers xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPAppVersion xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <VoteCount xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UACurrentWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP102929977</AssetId>
-    <TPClientViewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <DSATActionTaken xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <APEditor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OOCacheId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IsDeleted xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsDeleted>
-    <PublishTargets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <BugNumber xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Milestone xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OriginalRelease xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">15</OriginalRelease>
-    <RecommendationsModifier xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD552CE-B979-4BDB-9FB1-264C1B806DC7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8480B7C-74B5-4356-BE3E-F349192742C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16322,17 +16321,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8480B7C-74B5-4356-BE3E-F349192742C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD552CE-B979-4BDB-9FB1-264C1B806DC7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/CRONOGRAMA-APP.xlsx
+++ b/CRONOGRAMA-APP.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC9765C-3502-4A1C-A4A9-F6EF2CA1B1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE71BDC2-773A-428C-9B52-EC99C4184ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
     <sheet name="POC (29-12)" sheetId="3" r:id="rId2"/>
-    <sheet name="cálculos" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="POC (15-01)" sheetId="4" r:id="rId3"/>
+    <sheet name="cálculos" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="DataInício">cálculos!$D$28</definedName>
@@ -86,7 +87,7 @@
         <t>[Comentário encadeado]
 Sua versão do Excel permite que você leia este comentário encadeado, no entanto, as edições serão removidas se o arquivo for aberto em uma versão mais recente do Excel. Saiba mais: https://go.microsoft.com/fwlink/?linkid=870924
 Comentário:
-    Aguardando !</t>
+    Aguardando ! - terminando ajustes no APK e criação endpoint com Mapa de Calor</t>
       </text>
     </comment>
     <comment ref="D29" authorId="5" shapeId="0" xr:uid="{AEF41597-CD74-43FC-9810-ACB50DF2C271}">
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Atividade</t>
   </si>
@@ -234,6 +235,12 @@
     <t>- Instação do APK - telefones Clarify
 - Testes de envio e recepção de sinal
 - Validação gravação dos dados no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Segue link mapa</t>
+  </si>
+  <si>
+    <t>https://api-citrosuco.clarifysistemas.dev/heat_map</t>
   </si>
 </sst>
 </file>
@@ -5340,13 +5347,13 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>#N/A</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>#N/A</c:v>
@@ -6403,7 +6410,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{AE1A635D-E4DF-4430-B9C6-23099794A45B}</c15:txfldGUID>
+                      <c15:txfldGUID>{F45BBAAB-70C0-4E84-A911-0700E08E6E88}</c15:txfldGUID>
                       <c15:f>cálculos!$E$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6444,7 +6451,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4B94F9EC-4DC5-4F84-8226-C4D3651D6846}</c15:txfldGUID>
+                      <c15:txfldGUID>{BBDC7EA2-26C6-4DE3-9C67-C0885DACEFB1}</c15:txfldGUID>
                       <c15:f>cálculos!$F$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6485,7 +6492,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{350CBCFC-5562-4636-BCD7-FA6C8405FA52}</c15:txfldGUID>
+                      <c15:txfldGUID>{33924CD6-DC96-4410-A25D-F8443F13E1C2}</c15:txfldGUID>
                       <c15:f>cálculos!$G$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6526,7 +6533,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{050E3D16-1D37-4557-9D79-01D48421693A}</c15:txfldGUID>
+                      <c15:txfldGUID>{B03C8DEF-7F4D-4424-9D83-73761C4B8A37}</c15:txfldGUID>
                       <c15:f>cálculos!$H$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6567,7 +6574,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{365857B2-E3A5-4DB0-9B11-DE6251138F17}</c15:txfldGUID>
+                      <c15:txfldGUID>{064A18EE-CB7A-411A-A167-21F2FB490D3D}</c15:txfldGUID>
                       <c15:f>cálculos!$I$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6608,7 +6615,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7A15B2C5-0608-4544-88DB-6783F6D90735}</c15:txfldGUID>
+                      <c15:txfldGUID>{8D971243-817F-4F5D-831C-DA041F7CD20B}</c15:txfldGUID>
                       <c15:f>cálculos!$J$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6649,7 +6656,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{4DAC8214-EEFA-4439-BC56-432F7827F0C7}</c15:txfldGUID>
+                      <c15:txfldGUID>{051D9E94-B320-42A7-9805-A4F33690AD1B}</c15:txfldGUID>
                       <c15:f>cálculos!$K$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6690,7 +6697,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C10E0A00-1D21-4CB6-B967-5FF8FEE0549A}</c15:txfldGUID>
+                      <c15:txfldGUID>{606B0479-F1AF-4AB1-BDB5-379D7A4C9B95}</c15:txfldGUID>
                       <c15:f>cálculos!$L$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6731,7 +6738,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{503BF511-2990-47D2-A1F4-8F0E0494863B}</c15:txfldGUID>
+                      <c15:txfldGUID>{5EE532CB-900A-43ED-A8B1-C49F5F9F87DE}</c15:txfldGUID>
                       <c15:f>cálculos!$M$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6772,7 +6779,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{31EDD7C7-493F-4EFE-9E91-E6ACEEACBB4E}</c15:txfldGUID>
+                      <c15:txfldGUID>{BB96A393-0E15-487D-8D1C-B808740486EF}</c15:txfldGUID>
                       <c15:f>cálculos!$N$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6813,7 +6820,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{46536747-4BF4-463F-9B4E-49EB006697FC}</c15:txfldGUID>
+                      <c15:txfldGUID>{7FE5BF92-FB73-4BE7-BF11-123768238C65}</c15:txfldGUID>
                       <c15:f>cálculos!$O$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6854,7 +6861,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F0E625C3-5822-4A59-AA87-2D1C70F52E98}</c15:txfldGUID>
+                      <c15:txfldGUID>{15C94467-8296-49CC-AD2A-6437FE65E55A}</c15:txfldGUID>
                       <c15:f>cálculos!$P$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6895,7 +6902,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{29B3B6D3-DE63-42AA-9384-97D28A60C978}</c15:txfldGUID>
+                      <c15:txfldGUID>{2E5FB610-7C73-4B67-A2C2-91A52A42741C}</c15:txfldGUID>
                       <c15:f>cálculos!$Q$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6936,7 +6943,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B23D61E6-F7E9-4ACF-94EE-C414DE173F70}</c15:txfldGUID>
+                      <c15:txfldGUID>{148C7471-61D4-4063-ABE1-92EC4347416A}</c15:txfldGUID>
                       <c15:f>cálculos!$R$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -6977,7 +6984,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{91C92B43-338C-4F46-AA4E-DFED9AFD7786}</c15:txfldGUID>
+                      <c15:txfldGUID>{246AF55D-5B96-4BD5-8118-628957DCDFC3}</c15:txfldGUID>
                       <c15:f>cálculos!$S$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7018,7 +7025,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DBD629B3-BB34-47A0-B9CE-0F71584FE58C}</c15:txfldGUID>
+                      <c15:txfldGUID>{EF9B1B0D-FDFB-4B90-A545-1D83BCFCAF62}</c15:txfldGUID>
                       <c15:f>cálculos!$T$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7059,7 +7066,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B80445D2-001C-4B32-BDFA-668B372FA0A9}</c15:txfldGUID>
+                      <c15:txfldGUID>{CEE7C46F-DE57-432C-A7F6-D382437B5A30}</c15:txfldGUID>
                       <c15:f>cálculos!$U$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7100,7 +7107,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D909033C-4C77-4357-B057-1C983333144F}</c15:txfldGUID>
+                      <c15:txfldGUID>{766E3E3C-5E3C-44E7-9759-AFDD21312A52}</c15:txfldGUID>
                       <c15:f>cálculos!$V$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7141,7 +7148,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{490FF821-AFEF-4F2A-B569-83C8D2E64ED6}</c15:txfldGUID>
+                      <c15:txfldGUID>{3E1BA927-F5C9-45CC-A25C-BFDBABBD1F79}</c15:txfldGUID>
                       <c15:f>cálculos!$W$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7182,7 +7189,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F27E3115-EECA-42B3-AE37-ADC7F7F24612}</c15:txfldGUID>
+                      <c15:txfldGUID>{A2947F02-0F52-4F5B-954B-A743CA747B4A}</c15:txfldGUID>
                       <c15:f>cálculos!$X$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7223,7 +7230,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{79AACF4D-DB7C-42CE-B78D-C95CB5EFA406}</c15:txfldGUID>
+                      <c15:txfldGUID>{5FC96DD9-E920-49F6-A611-9B8463FBE918}</c15:txfldGUID>
                       <c15:f>cálculos!$Y$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7264,7 +7271,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2804BA05-0012-4009-8C7E-8D3F8B5B7884}</c15:txfldGUID>
+                      <c15:txfldGUID>{9C29BE38-D8DC-4ADD-920C-5D11F7BB2B5A}</c15:txfldGUID>
                       <c15:f>cálculos!$Z$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7305,7 +7312,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E38FA17D-BDE6-4C86-94B6-491DA8BDD4CF}</c15:txfldGUID>
+                      <c15:txfldGUID>{519254DF-72BA-4838-BEF0-82F24BC10463}</c15:txfldGUID>
                       <c15:f>cálculos!$AA$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7346,7 +7353,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{1F9BCA56-E378-4745-BD5E-0243D55AB92B}</c15:txfldGUID>
+                      <c15:txfldGUID>{9DA03A44-02F5-4257-85D5-AB91C9FAFA2C}</c15:txfldGUID>
                       <c15:f>cálculos!$AB$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7387,7 +7394,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DEA1FE18-9428-4C16-8950-7E9BF6D4AA95}</c15:txfldGUID>
+                      <c15:txfldGUID>{D4500094-2BD6-428A-835F-648FAD168E53}</c15:txfldGUID>
                       <c15:f>cálculos!$AC$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7428,7 +7435,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{44C16FD2-2431-4EBA-B0E5-CD65F5D8785F}</c15:txfldGUID>
+                      <c15:txfldGUID>{F14BCCCE-7B33-4635-9A59-2F490304FC20}</c15:txfldGUID>
                       <c15:f>cálculos!$AD$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7469,7 +7476,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{959BC9A7-9FD2-4EF9-92B6-9F947DEF0D1F}</c15:txfldGUID>
+                      <c15:txfldGUID>{A880F811-777E-45FE-97DD-B4C31D78769C}</c15:txfldGUID>
                       <c15:f>cálculos!$AE$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7510,7 +7517,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FF556554-A759-4F4B-BACD-43E5B757E282}</c15:txfldGUID>
+                      <c15:txfldGUID>{81ECD745-2F8B-4A6C-A98D-5F0256748823}</c15:txfldGUID>
                       <c15:f>cálculos!$AF$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7551,7 +7558,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B7F13289-6862-4816-A19A-FBADD7777F69}</c15:txfldGUID>
+                      <c15:txfldGUID>{F1220EEF-C01D-40D3-B784-1F10EE623177}</c15:txfldGUID>
                       <c15:f>cálculos!$AG$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7592,7 +7599,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{EF8A85FE-6B46-4998-841A-56FCB4AF351D}</c15:txfldGUID>
+                      <c15:txfldGUID>{48064BD2-530D-4B2A-ABEF-397320C06938}</c15:txfldGUID>
                       <c15:f>cálculos!$AH$72</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7884,7 +7891,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BA1CAB38-57F0-44B5-8D13-8764F621DEBA}</c15:txfldGUID>
+                      <c15:txfldGUID>{6246AFA9-4B28-4101-B373-86182850BB05}</c15:txfldGUID>
                       <c15:f>cálculos!$E$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7925,7 +7932,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7B300EB9-2418-4695-9A38-BEBC02B15CE5}</c15:txfldGUID>
+                      <c15:txfldGUID>{68888257-66FB-4D88-A7CD-BF16DDC5AB95}</c15:txfldGUID>
                       <c15:f>cálculos!$F$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -7966,7 +7973,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{70E1DBE0-FB56-43B6-AE6F-D33094E5ECBF}</c15:txfldGUID>
+                      <c15:txfldGUID>{17080585-841A-4803-8DB8-6ED1C7390D7E}</c15:txfldGUID>
                       <c15:f>cálculos!$G$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8007,7 +8014,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{0E17B220-E972-4CFB-AE7F-2DBC76C8F996}</c15:txfldGUID>
+                      <c15:txfldGUID>{3B942F42-5A9B-41C8-9DEA-7BC96E912F94}</c15:txfldGUID>
                       <c15:f>cálculos!$H$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8048,7 +8055,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D838942E-C9AE-48E4-9596-619487C709DD}</c15:txfldGUID>
+                      <c15:txfldGUID>{3718D5DC-4BAE-4696-BCB9-BBF8A9E88C97}</c15:txfldGUID>
                       <c15:f>cálculos!$I$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8089,7 +8096,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D9608561-A714-45F2-965A-6E6DD1E04F71}</c15:txfldGUID>
+                      <c15:txfldGUID>{35B26810-CCF0-43F0-91E3-F64821991FD9}</c15:txfldGUID>
                       <c15:f>cálculos!$J$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8130,7 +8137,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{62CBBE24-3060-4F45-A937-951362945F3A}</c15:txfldGUID>
+                      <c15:txfldGUID>{E90B7A96-145F-4882-8D58-39CCB4F3D8E4}</c15:txfldGUID>
                       <c15:f>cálculos!$K$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8171,7 +8178,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{7B881D4D-134A-4C4F-8391-20950C222D26}</c15:txfldGUID>
+                      <c15:txfldGUID>{75B029BF-2423-4685-BFFB-63022D1F61DC}</c15:txfldGUID>
                       <c15:f>cálculos!$L$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8212,7 +8219,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A8D7CECB-2D9B-4D4A-8CF6-5405248B4D38}</c15:txfldGUID>
+                      <c15:txfldGUID>{FA37BBA2-670E-43F6-8D0C-E88C6DFA656D}</c15:txfldGUID>
                       <c15:f>cálculos!$M$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8253,7 +8260,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{B59D9D5D-3325-419B-A6CF-559617F141EF}</c15:txfldGUID>
+                      <c15:txfldGUID>{D09B1EE7-1380-4FFC-9AA6-BD62040F452C}</c15:txfldGUID>
                       <c15:f>cálculos!$N$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8294,7 +8301,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{BF414947-3CE1-426F-B5EA-76A31571ECFC}</c15:txfldGUID>
+                      <c15:txfldGUID>{AA3C0363-555C-48FD-8F89-A67933592A26}</c15:txfldGUID>
                       <c15:f>cálculos!$O$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8335,7 +8342,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5F39062F-9DC2-49BC-A86E-F06B860E7DE3}</c15:txfldGUID>
+                      <c15:txfldGUID>{AE610406-A2CC-45A4-B311-784871086D59}</c15:txfldGUID>
                       <c15:f>cálculos!$P$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8376,7 +8383,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{A43E277A-2347-4707-8A2E-7C7CF7303C21}</c15:txfldGUID>
+                      <c15:txfldGUID>{B439498A-9AE7-4C99-940B-6B274432832F}</c15:txfldGUID>
                       <c15:f>cálculos!$Q$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8417,7 +8424,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{74EFC11C-EEE5-4425-8841-081C33535FB9}</c15:txfldGUID>
+                      <c15:txfldGUID>{0FBD937B-8167-4D5B-A362-06ECE7B687E8}</c15:txfldGUID>
                       <c15:f>cálculos!$R$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8458,7 +8465,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{2B276313-B8F6-41D6-B66F-01B016A302AB}</c15:txfldGUID>
+                      <c15:txfldGUID>{A1636C9C-1F3E-46FD-973C-999F0A5620E5}</c15:txfldGUID>
                       <c15:f>cálculos!$S$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8499,7 +8506,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{25B158AF-548C-4E07-AFEE-04FAB4E13EBC}</c15:txfldGUID>
+                      <c15:txfldGUID>{11C2EF12-A241-416B-A497-F9770EBDF531}</c15:txfldGUID>
                       <c15:f>cálculos!$T$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8540,7 +8547,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{5A2CE9CE-391B-4957-852B-07AB8BD4E1D7}</c15:txfldGUID>
+                      <c15:txfldGUID>{8A172ECB-5A5F-4B0E-BFBA-3FADA1CACBD6}</c15:txfldGUID>
                       <c15:f>cálculos!$U$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8581,7 +8588,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{DA39961E-4642-4969-BBEA-C35309546131}</c15:txfldGUID>
+                      <c15:txfldGUID>{F693B431-9BFF-4B1C-91F8-AF8C2C2E51A8}</c15:txfldGUID>
                       <c15:f>cálculos!$V$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8622,7 +8629,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{476C9F55-C112-45C0-A281-21D8B2FD042E}</c15:txfldGUID>
+                      <c15:txfldGUID>{3FD80551-22F2-4A88-9D4C-5A3AEDB61D44}</c15:txfldGUID>
                       <c15:f>cálculos!$W$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8663,7 +8670,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{E8E8590B-7DA2-4FF2-8521-2E52B3F4E161}</c15:txfldGUID>
+                      <c15:txfldGUID>{B16232F7-EE5F-409D-9F76-C73270788A70}</c15:txfldGUID>
                       <c15:f>cálculos!$X$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8704,7 +8711,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C95F96A3-C341-4581-9E4A-E2A3296AFA47}</c15:txfldGUID>
+                      <c15:txfldGUID>{E3D7E550-8B16-47CA-AD5B-9B5667FA45B7}</c15:txfldGUID>
                       <c15:f>cálculos!$Y$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8745,7 +8752,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{535F6718-E940-4527-AD8A-D5EAB3EE4008}</c15:txfldGUID>
+                      <c15:txfldGUID>{7EEA975C-F0EC-4F41-BE7E-670D53D662FF}</c15:txfldGUID>
                       <c15:f>cálculos!$Z$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8786,7 +8793,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{F7D6C498-E0F0-4387-9854-47AC6F3EE89B}</c15:txfldGUID>
+                      <c15:txfldGUID>{1C091BA8-7DEF-4B27-8CDC-5B98A8FA28C7}</c15:txfldGUID>
                       <c15:f>cálculos!$AA$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8827,7 +8834,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{9C9AF146-45C2-4084-9DC5-EDAA105125AA}</c15:txfldGUID>
+                      <c15:txfldGUID>{FAFE9A64-6DEF-4E6F-BC7B-9CBE629A07D2}</c15:txfldGUID>
                       <c15:f>cálculos!$AB$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8868,7 +8875,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{402FB6B5-D81F-4C35-8071-E4624280F857}</c15:txfldGUID>
+                      <c15:txfldGUID>{BCE22897-1FC0-40C6-BB5D-9A20D4801438}</c15:txfldGUID>
                       <c15:f>cálculos!$AC$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8909,7 +8916,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{D01383EB-6D79-41B5-A799-162EAC546F09}</c15:txfldGUID>
+                      <c15:txfldGUID>{BF8404B6-611D-461B-BE5D-705C086F451C}</c15:txfldGUID>
                       <c15:f>cálculos!$AD$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8950,7 +8957,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{84FF1AAE-D47A-472A-8D31-E060CEEC4C25}</c15:txfldGUID>
+                      <c15:txfldGUID>{A94EE3EB-44DB-448A-BC7F-0F902E51943E}</c15:txfldGUID>
                       <c15:f>cálculos!$AE$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -8991,7 +8998,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{FC0441FE-7639-4A4B-A703-53A990CFD880}</c15:txfldGUID>
+                      <c15:txfldGUID>{DE053999-8954-4E39-BAA1-A0A36C687A3F}</c15:txfldGUID>
                       <c15:f>cálculos!$AF$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -9032,7 +9039,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{C4AB1124-AACA-4A9A-9E59-6EE8F37FC708}</c15:txfldGUID>
+                      <c15:txfldGUID>{DE232E10-5E12-47AE-8A60-BD416BE55737}</c15:txfldGUID>
                       <c15:f>cálculos!$AG$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -9073,7 +9080,7 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable>
                     <c15:dlblFTEntry>
-                      <c15:txfldGUID>{6B48AB46-3DBD-4065-A7D2-D846D83AC970}</c15:txfldGUID>
+                      <c15:txfldGUID>{AC791029-1292-4E12-8529-1926A4369798}</c15:txfldGUID>
                       <c15:f>cálculos!$AH$70</c15:f>
                       <c15:dlblFieldTableCache>
                         <c:ptCount val="1"/>
@@ -10332,7 +10339,7 @@
 Criação da APK - instalação no celular da CitroSuco</text>
   </threadedComment>
   <threadedComment ref="D28" dT="2024-01-03T12:35:52.11" personId="{00000000-0000-0000-0000-000000000000}" id="{3B5187E9-E79E-44DE-85EE-07BDF24E856E}">
-    <text>Aguardando !</text>
+    <text>Aguardando ! - terminando ajustes no APK e criação endpoint com Mapa de Calor</text>
   </threadedComment>
   <threadedComment ref="D29" dT="2024-01-03T12:36:11.51" personId="{00000000-0000-0000-0000-000000000000}" id="{AEF41597-CD74-43FC-9810-ACB50DF2C271}">
     <text>Agendado !</text>
@@ -10348,8 +10355,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10581,7 +10588,7 @@
       <c r="B35" s="1"/>
       <c r="E35" s="1">
         <f ca="1">TODAY()</f>
-        <v>45304</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -10683,6 +10690,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA75360A-DE49-48C2-A950-6ACED9D82DA9}">
+  <dimension ref="B3:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AI72"/>
@@ -10710,7 +10742,7 @@
       </c>
       <c r="D3" s="1">
         <f ca="1">TODAY()</f>
-        <v>45304</v>
+        <v>45306</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -13840,17 +13872,17 @@
         <f t="shared" ca="1" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="AD56">
+      <c r="AD56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AE56" t="e">
+        <f t="shared" ca="1" si="16"/>
+        <v>#N/A</v>
+      </c>
+      <c r="AF56">
         <f t="shared" ca="1" si="16"/>
         <v>5</v>
-      </c>
-      <c r="AE56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
-      </c>
-      <c r="AF56" t="e">
-        <f t="shared" ca="1" si="16"/>
-        <v>#N/A</v>
       </c>
       <c r="AG56" t="e">
         <f t="shared" ca="1" si="16"/>
@@ -15119,128 +15151,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <APDescription xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetExpire xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2029-01-01T08:00:00+00:00</AssetExpire>
-    <CampaignTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </CampaignTagsTaxHTField0>
-    <IntlLangReviewDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPFriendlyName xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IntlLangReview xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IntlLangReview>
-    <LocLastLocAttemptVersionLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">845883</LocLastLocAttemptVersionLookup>
-    <PolicheckWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <SubmitterId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AcquiredFrom xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Internal MS</AcquiredFrom>
-    <EditorialStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Markets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <OriginAsset xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetStart xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2012-06-28T22:28:09+00:00</AssetStart>
-    <FriendlyTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <MarketSpecific xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MarketSpecific>
-    <TPNamespace xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <PublishStatusLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Value>452400</Value>
-    </PublishStatusLookup>
-    <APAuthor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId>2566</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </APAuthor>
-    <TPCommandLine xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IntlLangReviewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OpenTemplate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</OpenTemplate>
-    <CSXSubmissionDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <Manager xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <NumericId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ParentAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OriginalSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</OriginalSourceMarket>
-    <ApprovalStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">InProgress</ApprovalStatus>
-    <TPComponent xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <EditorialTags xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPExecutable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPLaunchHelpLink xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocRecommendedHandoff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <SourceTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXUpdate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CSXUpdate>
-    <IntlLocPriority xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UAProjectedTotalWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <MachineTranslated xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MachineTranslated>
-    <OutputCachingOn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</OutputCachingOn>
-    <TemplateStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</TemplateStatus>
-    <IsSearchable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsSearchable>
-    <ContentItem xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <HandoffToMSDN xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ShowIn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Show everywhere</ShowIn>
-    <ThumbnailAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UALocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UALocRecommendation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Localize</UALocRecommendation>
-    <LastModifiedDateTime xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LegacyData xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <LocManualTestRequired xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</LocManualTestRequired>
-    <LocMarketGroupTiers2 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ClipArtFilename xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPApplication xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXHash xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <DirectSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</DirectSourceMarket>
-    <PrimaryImageGen xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</PrimaryImageGen>
-    <PlannedPubDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CSXSubmissionMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Downloads xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">0</Downloads>
-    <ArtSampleDocs xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TrustLevel xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">1 Microsoft Managed Content</TrustLevel>
-    <BlockPublish xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</BlockPublish>
-    <TPLaunchHelpLinkType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Template</TPLaunchHelpLinkType>
-    <LocalizationTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </LocalizationTagsTaxHTField0>
-    <BusinessGroup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Providers xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TemplateTemplateType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Excel Spreadsheet Template</TemplateTemplateType>
-    <TimesCloned xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <TPAppVersion xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <VoteCount xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <FeatureTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </FeatureTagsTaxHTField0>
-    <Provider xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <UACurrentWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <AssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP102929977</AssetId>
-    <TPClientViewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <DSATActionTaken xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <APEditor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </APEditor>
-    <TPInstallLocation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OOCacheId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <IsDeleted xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsDeleted>
-    <PublishTargets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">OfficeOnlineVNext</PublishTargets>
-    <ApprovalLog xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <BugNumber xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <CrawlForDependencies xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CrawlForDependencies>
-    <InternalTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </InternalTagsTaxHTField0>
-    <LastHandOff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <Milestone xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <OriginalRelease xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">15</OriginalRelease>
-    <RecommendationsModifier xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-    <ScenarioTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ScenarioTagsTaxHTField0>
-    <UANotes xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>AssetEditForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16278,26 +16194,134 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>AssetEditForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <APDescription xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetExpire xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2029-01-01T08:00:00+00:00</AssetExpire>
+    <CampaignTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </CampaignTagsTaxHTField0>
+    <IntlLangReviewDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPFriendlyName xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IntlLangReview xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IntlLangReview>
+    <LocLastLocAttemptVersionLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">845883</LocLastLocAttemptVersionLookup>
+    <PolicheckWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <SubmitterId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AcquiredFrom xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Internal MS</AcquiredFrom>
+    <EditorialStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Markets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <OriginAsset xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetStart xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">2012-06-28T22:28:09+00:00</AssetStart>
+    <FriendlyTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <MarketSpecific xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MarketSpecific>
+    <TPNamespace xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <PublishStatusLookup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Value>452400</Value>
+    </PublishStatusLookup>
+    <APAuthor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId>2566</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </APAuthor>
+    <TPCommandLine xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IntlLangReviewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OpenTemplate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">true</OpenTemplate>
+    <CSXSubmissionDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <Manager xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <NumericId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ParentAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OriginalSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</OriginalSourceMarket>
+    <ApprovalStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">InProgress</ApprovalStatus>
+    <TPComponent xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <EditorialTags xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPExecutable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPLaunchHelpLink xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocRecommendedHandoff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <SourceTitle xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXUpdate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CSXUpdate>
+    <IntlLocPriority xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UAProjectedTotalWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <MachineTranslated xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</MachineTranslated>
+    <OutputCachingOn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</OutputCachingOn>
+    <TemplateStatus xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Complete</TemplateStatus>
+    <IsSearchable xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsSearchable>
+    <ContentItem xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <HandoffToMSDN xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ShowIn xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Show everywhere</ShowIn>
+    <ThumbnailAssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UALocComments xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UALocRecommendation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Localize</UALocRecommendation>
+    <LastModifiedDateTime xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LegacyData xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <LocManualTestRequired xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</LocManualTestRequired>
+    <LocMarketGroupTiers2 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ClipArtFilename xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPApplication xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXHash xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <DirectSourceMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">english</DirectSourceMarket>
+    <PrimaryImageGen xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</PrimaryImageGen>
+    <PlannedPubDate xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CSXSubmissionMarket xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Downloads xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">0</Downloads>
+    <ArtSampleDocs xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TrustLevel xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">1 Microsoft Managed Content</TrustLevel>
+    <BlockPublish xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</BlockPublish>
+    <TPLaunchHelpLinkType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Template</TPLaunchHelpLinkType>
+    <LocalizationTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </LocalizationTagsTaxHTField0>
+    <BusinessGroup xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Providers xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TemplateTemplateType xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">Excel Spreadsheet Template</TemplateTemplateType>
+    <TimesCloned xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <TPAppVersion xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <VoteCount xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <FeatureTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </FeatureTagsTaxHTField0>
+    <Provider xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <UACurrentWords xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <AssetId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">TP102929977</AssetId>
+    <TPClientViewer xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <DSATActionTaken xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <APEditor xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </APEditor>
+    <TPInstallLocation xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OOCacheId xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <IsDeleted xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</IsDeleted>
+    <PublishTargets xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">OfficeOnlineVNext</PublishTargets>
+    <ApprovalLog xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <BugNumber xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <CrawlForDependencies xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">false</CrawlForDependencies>
+    <InternalTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </InternalTagsTaxHTField0>
+    <LastHandOff xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <Milestone xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <OriginalRelease xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">15</OriginalRelease>
+    <RecommendationsModifier xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+    <ScenarioTagsTaxHTField0 xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ScenarioTagsTaxHTField0>
+    <UANotes xmlns="e5d022ff-4ce9-4922-b5a4-f245e35e2aac" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8480B7C-74B5-4356-BE3E-F349192742C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD552CE-B979-4BDB-9FB1-264C1B806DC7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16321,9 +16345,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD552CE-B979-4BDB-9FB1-264C1B806DC7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8480B7C-74B5-4356-BE3E-F349192742C6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e5d022ff-4ce9-4922-b5a4-f245e35e2aac"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>